--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H349"/>
+  <dimension ref="A1:H379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12307,6 +12307,1026 @@
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
     </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>A tendência recente descrita no texto é a passagem de um Estado produtor para uma nova configuração que pretende ser a de um Estado regulador.</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>A tendência recente da economia brasileira é o retorno ao modelo de Estado produtor, com a reestatização de serviços públicos e infraestrutura.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>O texto destaca o movimento de privatização e a pretensão de configurar um Estado regulador, abandonando a função de produtor direto.</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Mesmo na fase colonial, a economia brasileira era marcada por forte presença governamental, exigindo autorização régia para diversas atividades.</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>A fase colonial brasileira foi caracterizada pelo "laissez-faire" absoluto, sem nenhuma necessidade de autorização ou intervenção da metrópole.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Desde a colônia, as atividades econômicas dependiam de concessões, privilégios ou administração direta do governo metropolitano.</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>A República Velha, embora considerada liberal, teve intervenções estatais importantes, como a política de defesa do café iniciada em 1906.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>A República Velha foi um período de liberalismo puro, onde o governo jamais interveio nos mercados agrícolas ou de câmbio.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>A defesa do café (Convênio de Taubaté) foi uma intervenção estatal maciça para regular preços e estoques.</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Na Primeira República, serviços públicos como ferrovias eram providos por empresas privadas, mas muitas contavam com a "garantia de juros" paga pelo governo.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Na Primeira República, todas as ferrovias e portos eram estatais, pois a constituição proibia a exploração privada desses serviços.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>O modelo era de concessão privada, mas o risco era mitigado pelo Estado, que garantia um lucro mínimo (juros) sobre o capital investido.</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Na década de 1920, o Banco do Brasil passou a atuar como autoridade monetária, controlando o câmbio e o redesconto.</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Na década de 1920, o Banco do Brasil foi privatizado e perdeu todas as suas funções de controle monetário e cambial.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>O BB centralizou funções de banco central (redesconto, câmbio) antes mesmo da criação oficial do Bacen.</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>A intervenção estatal na fase agroexportadora tinha caráter de "defesa macroeconômica", visando proteger o país de crises externas.</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>A intervenção estatal na fase agroexportadora visava exclusivamente destruir a agricultura para forçar a industrialização imediata.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>O objetivo era dotar a economia de defesas contra oscilações internacionais, protegendo a renda nacional (baseada no café).</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>A partir de 1930, o Estado assumiu o papel de "condutor", submetendo a política econômica (câmbio, tarifas, crédito) às metas de industrialização.</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>A partir de 1930, o Estado brasileiro abdicou de qualquer papel no desenvolvimento, deixando a industrialização ocorrer espontaneamente.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>O Estado varguista instrumentalizou a política econômica para forçar a mudança do modelo agroexportador para o industrial.</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>O papel de "Estado regulamentador" envolveu a criação da CLT e da Justiça do Trabalho para mediar o conflito capital-trabalho.</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>O "Estado regulamentador" refere-se à proibição total de sindicatos e à extinção de qualquer lei trabalhista no período pós-1930.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>A regulação trabalhista (CLT) institucionalizou o conflito distributivo para garantir a paz social necessária à indústria.</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>O "Estado produtor" consolidou-se com a criação de estatais em setores de bens intermediários e infraestrutura, como CSN, Vale e Petrobras.</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>O "Estado produtor" focou exclusivamente na produção de bens de consumo leve, como têxteis e calçados, competindo com pequenas empresas.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>O Estado entrou onde o capital privado não ia: indústria de base (siderurgia, petróleo, mineração) e infraestrutura pesada.</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>O BNDE (atual BNDES) foi criado para ser o braço do "Estado financiador", provendo crédito de longo prazo que o mercado privado não oferecia.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>O BNDE foi criado com o objetivo único de financiar o consumo das famílias e o cheque especial, sem foco em investimento.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>O BNDE supriu a falha do mercado de capitais, financiando a formação de capital fixo a longo prazo.</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>A estatização dos serviços públicos deveu-se, em parte, à necessidade de manter tarifas baixas para a indústria, inviabilizando o lucro privado.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>A estatização ocorreu porque as empresas privadas de serviços públicos estavam lucrando excessivamente e cobrando tarifas muito baixas.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>O controle tarifário (para subsidiar a indústria) gerava prejuízos que o setor privado não aceitava, forçando o Estado a assumir.</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>A crise de 1929 retraiu o mercado de capitais, dificultando o financiamento privado de longo prazo via emissão de ações e debêntures.</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>A crise de 1929 fortaleceu o mercado de capitais brasileiro, permitindo que empresas privadas financiassem grandes siderúrgicas sozinhas.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>A crise secou a liquidez internacional e nacional, tornando o financiamento bancário (curto prazo) predominante e insuficiente para infraestrutura.</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>No pós-guerra, apenas os governos conseguiam financiar infraestrutura, pois tinham acesso a poupança compulsória e garantiam empréstimos externos.</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>No pós-guerra, o setor privado liderou os investimentos em infraestrutura, pois os bancos comerciais ofereciam crédito abundante de longo prazo.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>O "funding" de longo prazo era estatal (fundos compulsórios, impostos) ou garantido pelo Estado (dívida externa).</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Bens públicos são caracterizados pela não rivalidade e não excludência, o que dificulta sua provisão eficiente pelo mercado privado.</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Bens públicos são aqueles produzidos exclusivamente por empresas estatais e vendidos com lucro no mercado, como automóveis.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>A definição econômica de bem público (iluminação, defesa) envolve a impossibilidade de excluir consumidores e o uso compartilhado.</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>O "modelo europeu" de serviços públicos, predominante no pós-guerra, baseia-se no fornecimento direto por empresas estatais.</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>O "modelo europeu" baseia-se na privatização total dos serviços públicos sem qualquer regulação estatal.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>O texto contrasta o modelo europeu (estatal) com o norte-americano (privado regulado).</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>A existência de monopólios naturais e economias de escala justifica a intervenção do Estado para evitar ineficiências e preços abusivos.</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Monopólios naturais são as estruturas de mercado mais eficientes e não requerem nenhuma regulação ou intervenção estatal.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Sem regulação, o monopolista reduz quantidade e sobe preços; o Estado intervém para maximizar o bem-estar.</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Os governos militares ampliaram a atuação do Estado como produtor e financiador, criando novas estatais e fundos como o FGTS e PIS-Pasep.</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>O regime militar promoveu uma ampla privatização e reduziu drasticamente o tamanho do Estado na economia brasileira.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>O período militar foi de expansão do Estado, criando centenas de estatais e mecanismos de poupança forçada (FGTS) para financiamento.</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>O Conselho Interministerial de Preços (CIP) foi um órgão criado para ampliar o controle estatal sobre os custos e preços na economia.</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>O CIP foi criado para liberar totalmente os preços e proibir o governo de interferir no mercado.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>O CIP institucionalizou o controle de preços industrial durante o regime militar.</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>As reformas recentes buscaram desmontar a estrutura do "Estado produtor", focando na privatização e desregulamentação.</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>As reformas recentes visaram fortalecer o "Estado produtor", proibindo a atuação de empresas estrangeiras no Brasil.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>A marca dos anos 90 foi o PND e o fim do modelo varguista de intervenção direta na produção.</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>A Lei de Responsabilidade Fiscal buscou impor limites rígidos ao endividamento e gastos com pessoal de estados e municípios.</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>A Lei de Responsabilidade Fiscal permitiu que governadores e prefeitos gastassem sem limites para estimular a economia.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>A LRF foi um marco de controle fiscal para evitar a insolvência dos entes subnacionais.</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>A criação da Secretaria do Tesouro Nacional (STN) e o fim da Conta Movimento visaram separar as funções fiscais e monetárias.</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>A criação da STN visou misturar as contas do Banco Central com as do governo para facilitar a emissão de moeda.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>As reformas buscaram transparência e o fim do financiamento monetário do déficit (separando Bacen de Tesouro).</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Uma das razões para a privatização foi a incapacidade do Estado de realizar os investimentos necessários para a modernização dos serviços.</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>A privatização ocorreu porque o Estado tinha excesso de recursos para investir e não sabia onde gastar.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>A crise fiscal exauriu a capacidade de investimento do setor público, degradando os serviços.</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>As empresas estatais sofriam com a deterioração física dos ativos e desbalanceamento entre oferta e demanda devido à falta de manutenção e planejamento.</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>As empresas estatais eram exemplos mundiais de eficiência operacional e manutenção impecável de seus ativos.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>O texto cita a deterioração, ineficiência e viés por obras novas em vez de manutenção como problemas crônicos.</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>A utilização das tarifas das estatais para controlar a inflação destruiu a capacidade de autofinanciamento e investimento dessas empresas.</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>O governo sempre permitiu que as estatais reajustassem suas tarifas acima da inflação para garantir lucros exorbitantes.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>O represamento tarifário (usar tarifa pública para segurar índice de preço) descapitalizou as empresas.</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>A mudança tecnológica permitiu a quebra de monopólios naturais em alguns setores, facilitando a privatização e a concorrência.</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>A tecnologia tornou os monopólios naturais ainda mais rígidos, impedindo qualquer forma de privatização ou concorrência.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Novas tecnologias (ex: telecom, geração distribuída) reduziram as barreiras de entrada e escalas mínimas, viabilizando competição.</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>A fase de "reprivatização" nos anos 1980 consistiu na venda de empresas que haviam sido absorvidas pelo Estado por falência, não estatais originais.</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>A "reprivatização" nos anos 1980 foi a venda das grandes estatais de petróleo e energia elétrica.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Nos anos 80, o governo apenas devolveu ao mercado empresas privadas falidas que tinha saneado; a privatização real começou nos anos 90.</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>No governo Collor, o PND focou na privatização de setores industriais de base, como siderurgia, petroquímica e fertilizantes.</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>No governo Collor, o foco da privatização foi o setor de telecomunicações e bancos estaduais.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>A fase Collor vendeu a indústria de bens intermediários (Usiminas, CSN); telecom ficou para o governo FHC.</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>As "moedas podres" eram títulos da dívida pública aceitos nos leilões de privatização pelo valor de face, facilitando a venda.</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>As "moedas podres" eram notas de dinheiro falsificadas que o governo aceitou por engano durante os leilões.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Eram títulos da dívida com deságio no mercado (valiam pouco), mas o governo aceitava pelo valor cheio na privatização.</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>A privatização ajudou a financiar o déficit público e atraiu capital externo, mas não resolveu o problema do estoque da dívida pública.</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>A privatização eliminou completamente a dívida pública brasileira, gerando um superávit fiscal permanente.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>As receitas foram usadas (abatimento de dívida ou fluxo de caixa), mas a dívida total continuou crescendo por outros fatores (juros).</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>A privatização do setor de serviços públicos levanta dúvidas quanto à eficácia da regulação para garantir eficiência e bem-estar.</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>A privatização garantiu automaticamente a eficiência máxima dos serviços públicos, dispensando a necessidade de agências reguladoras.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>A eficiência privada depende de regulação estatal forte, cuja qualidade ainda é questionada no texto.</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
